--- a/docs/Planificacion/CalculoHoras.xlsx
+++ b/docs/Planificacion/CalculoHoras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\aai-app\docs\Planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76254394-D252-4998-8F2A-A4EF26688C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680FB29C-C337-4B8D-87B1-D0850A27215E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="855" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4DBD9D17-ECAD-4673-8C3F-4F1879FEC80A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Sprint</t>
   </si>
@@ -98,6 +98,42 @@
   </si>
   <si>
     <t>Presentación</t>
+  </si>
+  <si>
+    <t>Jefe de proyecto</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>Desarrollador</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>SUELDO</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Dispositivos</t>
+  </si>
+  <si>
+    <t>BBDD</t>
+  </si>
+  <si>
+    <t>Photoshop</t>
+  </si>
+  <si>
+    <t>Cuenta dev</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -105,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -147,7 +183,7 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,26 +249,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -280,6 +296,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -303,6 +324,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -326,6 +352,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -349,6 +380,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -372,6 +408,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -395,6 +436,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -420,6 +466,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -445,6 +496,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -470,6 +526,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -495,6 +556,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -520,6 +586,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-388E-4AF9-A02F-11338CA6F635}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -578,10 +649,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
               </c:ext>
             </c:extLst>
@@ -781,563 +848,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="brightRoom" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="flat">
-        <a:bevelT w="50800" h="101600" prst="angle"/>
-        <a:contourClr>
-          <a:srgbClr val="000000"/>
-        </a:contourClr>
-      </a:sp3d>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1848,15 +1358,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92372982-5DEC-4E9E-B40B-3A2EA67AE6FD}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1879,7 +1392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>4.5833333333333337E-2</v>
       </c>
@@ -1899,7 +1412,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0.67847222222222225</v>
       </c>
@@ -1917,7 +1430,7 @@
         <v>5.8333333333333327E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>0.36041666666666666</v>
       </c>
@@ -1935,7 +1448,7 @@
         <v>3.6111111111111115E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5.9722222222222225E-2</v>
       </c>
@@ -1953,7 +1466,7 @@
         <v>6.3194444444444442E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>0.5083333333333333</v>
       </c>
@@ -1971,7 +1484,7 @@
         <v>4.3750000000000004E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>0.51944444444444449</v>
       </c>
@@ -1989,7 +1502,7 @@
         <v>4.6527777777777779E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>0.13402777777777777</v>
       </c>
@@ -2007,7 +1520,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5.1388888888888894E-2</v>
       </c>
@@ -2022,8 +1535,14 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2.013888888888889E-2</v>
       </c>
@@ -2034,8 +1553,22 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <f>SUM(A32,F32,G32)</f>
+        <v>4.249305555555555</v>
+      </c>
+      <c r="M10">
+        <v>102</v>
+      </c>
+      <c r="N10">
+        <v>46.09</v>
+      </c>
+      <c r="O10">
+        <f>M10*N10</f>
+        <v>4701.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -2046,8 +1579,11 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>0.18541666666666667</v>
       </c>
@@ -2058,8 +1594,22 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <f>SUM(B32,C32)</f>
+        <v>3.0125000000000002</v>
+      </c>
+      <c r="M12">
+        <v>73</v>
+      </c>
+      <c r="N12">
+        <v>38.33</v>
+      </c>
+      <c r="O12">
+        <f>M12*N12</f>
+        <v>2798.0899999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3.125E-2</v>
       </c>
@@ -2070,8 +1620,11 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>0.12013888888888889</v>
       </c>
@@ -2082,8 +1635,21 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>6.0597222222222227</v>
+      </c>
+      <c r="M14">
+        <v>146</v>
+      </c>
+      <c r="N14">
+        <v>28.71</v>
+      </c>
+      <c r="O14">
+        <f>M14*N14</f>
+        <v>4191.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>0.13541666666666666</v>
       </c>
@@ -2094,8 +1660,11 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2104,8 +1673,18 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>28.52</v>
+      </c>
+      <c r="O16">
+        <f>M16*N16</f>
+        <v>85.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2115,7 +1694,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2124,8 +1703,12 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f>SUM(O10,O12,O14,O16)</f>
+        <v>11776.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2135,7 +1718,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2145,7 +1728,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2155,7 +1738,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2163,7 +1746,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2171,7 +1754,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2.7562500000000001</v>
       </c>
@@ -2195,8 +1778,38 @@
         <f t="shared" si="0"/>
         <v>0.35902777777777778</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2.8902777777777775</v>
       </c>
@@ -2212,8 +1825,28 @@
       <c r="F28" s="2">
         <v>0.35902777777777778</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>24.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f>SUM(M24:M29)</f>
+        <v>992.19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3.2652777777777775</v>
       </c>
@@ -2234,6 +1867,25 @@
       </c>
       <c r="G32" s="2">
         <v>0.625</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>11776.49</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>992.19</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f>SUM(M34:M35)</f>
+        <v>12768.68</v>
       </c>
     </row>
   </sheetData>
